--- a/Documentación/Psp's/Salma/BD Usuario/Size estimating template.xlsx
+++ b/Documentación/Psp's/Salma/BD Usuario/Size estimating template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yosse\Documents\TSP\PSP\Psp BD Usuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yosse\Downloads\Clase BD_Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FF196E4-DB5D-433E-BE17-C4DB870CDD1E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B58281F3-5F41-4AF8-8413-C59223FEA6AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
-    <sheet name="excel(4)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel(5)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel_4" localSheetId="0">'excel(4)'!$A$1:$L$47</definedName>
+    <definedName name="excel_5" localSheetId="0">'excel(5)'!$A$1:$L$47</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Yosse\Downloads\excel(4).iqy" name="excel(4)" type="4" refreshedVersion="6" background="1" saveData="1">
-    <webPr consecutive="1" xl2000="1" url="http://localhost:2469/reports/form2html.class?uri=%2FProyecto%2FPSP2%2E1Clase%2BBD%2BUsuario%2F%2Fpsp2%2E1%2Fsizeest%2Eclass&amp;EXPORT=excel" htmlFormat="all"/>
+  <connection id="1" odcFile="C:\Users\Yosse\Downloads\Clase BD_Usuario\excel(5).iqy" name="excel(5)" type="4" refreshedVersion="6" background="1" saveData="1">
+    <webPr consecutive="1" xl2000="1" url="http://localhost:2469/reports/form2html.class?uri=%2FProyecto%2FPSP2%2E1Clase%2BBD%2BUsuario%2F%2Fpsp2%2E1%2Fsizeest%2Eclass%3Frefresh%3D46%26refresh%3D230%26refresh%3D237&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>/Proyecto/PSP2.1Clase BD Usuario</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Actual Size of Finished Product:</t>
-  </si>
-  <si>
-    <t>#VALUE!</t>
   </si>
   <si>
     <t>Instructions: During the planning phase, complete the "Estimated" columns in the form above, then use the PROBE Wizard to fill out the fields below.</t>
@@ -166,7 +163,7 @@
     <t>PROBE estimating basis used: (A, B, C, or D)</t>
   </si>
   <si>
-    <t>D</t>
+    <t>C</t>
   </si>
   <si>
     <r>
@@ -1234,7 +1231,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel(4)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel(5)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1536,13 +1533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1796,10 +1793,10 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="6">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K16" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>25</v>
@@ -1822,7 +1819,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="8"/>
       <c r="J17" s="6">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1901,13 +1898,13 @@
         <v>30</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="6" t="s">
-        <v>31</v>
+      <c r="C24" s="6">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1919,15 +1916,15 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="6">
@@ -1938,10 +1935,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="6">
@@ -1952,82 +1949,82 @@
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="6">
-        <v>79.900000000000006</v>
+        <v>63.9</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="8"/>
       <c r="D30" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="8"/>
       <c r="D31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="6">
@@ -2038,10 +2035,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="6">
@@ -2052,10 +2049,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>50</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>51</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="6">
@@ -2066,10 +2063,10 @@
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="6"/>
@@ -2080,64 +2077,64 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>57</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="8"/>
       <c r="D41" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2151,7 +2148,7 @@
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2196,10 +2193,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://localhost:2469/psp-lib/sizeinst.htm"/>
-    <hyperlink ref="A13" r:id="rId2" display="http://localhost:2469/reports/sizeest.class?moreBaseParts=1"/>
+    <hyperlink ref="A13" r:id="rId2" display="http://localhost:2469/reports/sizeest.class?moreBaseParts=6"/>
     <hyperlink ref="D15" r:id="rId3" display="http://localhost:2469/dash/sizePerItemEdit"/>
-    <hyperlink ref="A17" r:id="rId4" display="http://localhost:2469/reports/sizeest.class?moreNew=1"/>
-    <hyperlink ref="A21" r:id="rId5" display="http://localhost:2469/reports/sizeest.class?moreReused=1"/>
+    <hyperlink ref="A17" r:id="rId4" display="http://localhost:2469/reports/sizeest.class?moreNew=6"/>
+    <hyperlink ref="A21" r:id="rId5" display="http://localhost:2469/reports/sizeest.class?moreReused=6"/>
     <hyperlink ref="A25" r:id="rId6" display="http://localhost:2469/reports/probe/probe.class"/>
     <hyperlink ref="A43" r:id="rId7" display="http://localhost:2469/reports/probe/probe.class?page=report"/>
   </hyperlinks>
